--- a/Results/Notebook 2 Example 1/Scores/problem_1_instance2_scores.xlsx
+++ b/Results/Notebook 2 Example 1/Scores/problem_1_instance2_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01403063811051966</v>
+        <v>0.01281184547501269</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2390028004484786</v>
+        <v>0.2052201710742377</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07797928588326458</v>
+        <v>0.06977971597469282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2307478433003724</v>
+        <v>0.1934796635155446</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.665335885850165</v>
+        <v>0.6876801604990849</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1419466300423864</v>
+        <v>0.158684699782748</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9642897511721619</v>
+        <v>0.9608464093066923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301104483913458</v>
+        <v>0.4135820600011968</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9064244989174891</v>
+        <v>0.9098575711074481</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5039922621778716</v>
+        <v>0.5373737244053245</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7296889580725018</v>
+        <v>0.7478133521552075</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06373255884917227</v>
+        <v>0.08705150454388995</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.003645360469818115</v>
+        <v>0.006505982875823975</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2540662884712219</v>
+        <v>0.212273006439209</v>
       </c>
     </row>
   </sheetData>
